--- a/tests/results.xlsx
+++ b/tests/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iftac\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iftac\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4C582-B6AE-44F6-B51A-54F4EAE031E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD7118-FB32-45C7-9EC1-CC10136C4A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2955" windowWidth="35295" windowHeight="17925" xr2:uid="{AE9A131C-33A2-4F32-9038-EE7B7D053401}"/>
+    <workbookView xWindow="18750" yWindow="0" windowWidth="19755" windowHeight="20985" xr2:uid="{AE9A131C-33A2-4F32-9038-EE7B7D053401}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>method/q</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>with bugs</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>llm</t>
+  </si>
+  <si>
+    <t>combind</t>
   </si>
 </sst>
 </file>
@@ -1253,91 +1265,91 @@
                   <c:v>0.45300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45300000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.29799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.248</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.193</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.54800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.161</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.71199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.19800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.504</c:v>
+                  <c:v>0.45600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.504</c:v>
+                  <c:v>0.224</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.504</c:v>
+                  <c:v>9.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.54100000000000004</c:v>
+                  <c:v>0.57199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.54100000000000004</c:v>
+                  <c:v>0.36399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.54100000000000004</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,64 +1620,64 @@
                   <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.38600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.13900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.45100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.218</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.16300000000000001</c:v>
@@ -1674,16 +1686,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.309</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -2036,7 +2048,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>גיליון1!$C$37:$G$37</c:f>
+              <c:f>גיליון1!$B$37:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2059,7 +2071,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון1!$C$38:$G$38</c:f>
+              <c:f>גיליון1!$B$38:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2073,10 +2085,10 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,6 +2266,1762 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL"/>
+              <a:t>תוצאות אחוז התאמת המודל ביחס לשאילת</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7256038430288942E-3"/>
+          <c:y val="0.18609397095803273"/>
+          <c:w val="0.89032016504356359"/>
+          <c:h val="0.70359629574605065"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method/q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E581-4D7B-9302-963BA17D471B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf_idf_pre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$C$3:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.12710000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E581-4D7B-9302-963BA17D471B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bm25_pre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$D$3:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15956666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E581-4D7B-9302-963BA17D471B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf_idf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$E$3:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25063333333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E581-4D7B-9302-963BA17D471B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bm25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$F$3:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19526666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E581-4D7B-9302-963BA17D471B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>combined</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$G$3:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27586666666666676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E581-4D7B-9302-963BA17D471B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$H$3:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28436666666666677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E581-4D7B-9302-963BA17D471B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-35"/>
+        <c:axId val="55397119"/>
+        <c:axId val="55405759"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55397119"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="he-IL"/>
+                  <a:t> מספר</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="he-IL" baseline="0"/>
+                  <a:t> השאילת</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55405759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55405759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="he-IL"/>
+                  <a:t>ציון התאמה</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55397119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="he-IL"/>
+              <a:t>זמן ממוצע ביחס</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t> למודל</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>גיליון1!$B$37:$H$37</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>with bugs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tf_idf_pre</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bm25_pre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tf_idf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bm25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>combind</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>llm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$B$38:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAF1-4898-92FC-7CB1C7B6D077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="205012559"/>
+        <c:axId val="204986159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="205012559"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="he-IL"/>
+                  <a:t>סוג</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="he-IL" baseline="0"/>
+                  <a:t> המודל</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204986159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204986159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="he-IL"/>
+                  <a:t>זמן בשניות</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205012559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2334,6 +4102,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
@@ -3353,20 +5201,1011 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="211">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1600201</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>423864</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3393,16 +6232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3422,6 +6261,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="תרשים 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C987E3F-48DC-2FAF-A3A8-E1F0B8383EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="תרשים 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB427B6-FADA-10F6-BA0A-BEB4B6E15F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3747,10 +6658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B285179-19F0-4606-A3D9-E9FB69125675}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3763,7 +6674,7 @@
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
@@ -3773,7 +6684,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3792,8 +6703,14 @@
       <c r="F2" t="s">
         <v>32</v>
       </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3812,8 +6729,14 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.45300000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3827,13 +6750,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.45300000000000001</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3852,8 +6781,14 @@
       <c r="F5">
         <v>0.55500000000000005</v>
       </c>
+      <c r="G5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="H5">
+        <v>0.55500000000000005</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3867,13 +6802,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.55500000000000005</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="F6">
-        <v>0.55500000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3887,13 +6828,19 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="E7">
-        <v>0.55500000000000005</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F7">
-        <v>0.55500000000000005</v>
+        <v>0.317</v>
+      </c>
+      <c r="G7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3907,13 +6854,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.55500000000000005</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F8">
-        <v>0.55500000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H8">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3927,13 +6880,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.55500000000000005</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.55500000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3947,13 +6906,19 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="E10">
-        <v>0.55500000000000005</v>
+        <v>0.375</v>
       </c>
       <c r="F10">
-        <v>0.55500000000000005</v>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.375</v>
+      </c>
+      <c r="H10">
+        <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3967,13 +6932,19 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="E11">
-        <v>0.55500000000000005</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.55500000000000005</v>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3987,13 +6958,19 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.55500000000000005</v>
+        <v>0.248</v>
       </c>
       <c r="F12">
-        <v>0.55500000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.248</v>
+      </c>
+      <c r="H12">
+        <v>0.248</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4007,13 +6984,19 @@
         <v>0.48399999999999999</v>
       </c>
       <c r="E13">
-        <v>0.55500000000000005</v>
+        <v>0.193</v>
       </c>
       <c r="F13">
-        <v>0.55500000000000005</v>
+        <v>0.62</v>
+      </c>
+      <c r="G13">
+        <v>0.62</v>
+      </c>
+      <c r="H13">
+        <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4027,13 +7010,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.55500000000000005</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="F14">
-        <v>0.55500000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H14">
+        <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4047,13 +7036,19 @@
         <v>0.06</v>
       </c>
       <c r="E15">
-        <v>0.55500000000000005</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="F15">
-        <v>0.55500000000000005</v>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="H15">
+        <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4067,13 +7062,19 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="E16">
-        <v>0.55500000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="F16">
-        <v>0.55500000000000005</v>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H16">
+        <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4087,13 +7088,19 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="E17">
-        <v>0.55500000000000005</v>
+        <v>0.216</v>
       </c>
       <c r="F17">
-        <v>0.55500000000000005</v>
+        <v>0.08</v>
+      </c>
+      <c r="G17">
+        <v>0.216</v>
+      </c>
+      <c r="H17">
+        <v>0.216</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4107,13 +7114,19 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="E18">
-        <v>0.55500000000000005</v>
+        <v>0.161</v>
       </c>
       <c r="F18">
-        <v>0.55500000000000005</v>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.161</v>
+      </c>
+      <c r="H18">
+        <v>0.161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4127,13 +7140,19 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="E19">
-        <v>0.55500000000000005</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F19">
-        <v>0.55500000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.129</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4147,13 +7166,19 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.55500000000000005</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="F20">
-        <v>0.55500000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H20">
+        <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4167,13 +7192,19 @@
         <v>0.255</v>
       </c>
       <c r="E21">
-        <v>0.55500000000000005</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F21">
-        <v>0.55500000000000005</v>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4187,13 +7218,19 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="E22">
-        <v>0.55500000000000005</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F22">
-        <v>0.55500000000000005</v>
+        <v>0.218</v>
+      </c>
+      <c r="G22">
+        <v>0.218</v>
+      </c>
+      <c r="H22">
+        <v>0.218</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4207,13 +7244,19 @@
         <v>0.48</v>
       </c>
       <c r="E23">
-        <v>0.55500000000000005</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F23">
-        <v>0.55500000000000005</v>
+        <v>0.48</v>
+      </c>
+      <c r="G23">
+        <v>0.48</v>
+      </c>
+      <c r="H23">
+        <v>0.48</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4227,13 +7270,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4.5999999999999999E-2</v>
+        <v>0.44</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
+      <c r="G24">
+        <v>0.44</v>
+      </c>
+      <c r="H24">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4247,13 +7296,19 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="E25">
-        <v>4.5999999999999999E-2</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4272,8 +7327,14 @@
       <c r="F26">
         <v>0.16300000000000001</v>
       </c>
+      <c r="G26">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.16300000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4287,13 +7348,19 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.504</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
+      <c r="G27">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.45600000000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4307,13 +7374,19 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="E28">
-        <v>0.504</v>
+        <v>0.224</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.63</v>
+      </c>
+      <c r="G28">
+        <v>0.224</v>
+      </c>
+      <c r="H28">
+        <v>0.224</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4327,13 +7400,19 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="E29">
-        <v>0.504</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.309</v>
+      </c>
+      <c r="G29">
+        <v>0.309</v>
+      </c>
+      <c r="H29">
+        <v>0.309</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4347,13 +7426,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.54100000000000004</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
+      <c r="G30">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="H30">
+        <v>0.57199999999999995</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4367,13 +7452,19 @@
         <v>0.34</v>
       </c>
       <c r="E31">
-        <v>0.54100000000000004</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.372</v>
+      </c>
+      <c r="G31">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4387,67 +7478,93 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.54100000000000004</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="G32">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H32">
+        <v>4.3999999999999997E-2</v>
+      </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C33">
         <f>AVERAGE(C3:C32)</f>
         <v>0.12710000000000005</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:F33" si="0">AVERAGE(D3:D32)</f>
+        <f t="shared" ref="D33:H33" si="0">AVERAGE(D3:D32)</f>
         <v>0.15956666666666666</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>0.49469999999999986</v>
+        <v>0.25063333333333337</v>
       </c>
       <c r="F33">
+        <f>AVERAGE(F3:F32)</f>
+        <v>0.19526666666666667</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="0"/>
-        <v>0.35693333333333327</v>
+        <v>0.27586666666666676</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.28436666666666677</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C38">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38">
         <v>6.2</v>
       </c>
-      <c r="D38" s="1">
+      <c r="C38" s="1">
         <v>5.7</v>
       </c>
-      <c r="E38">
+      <c r="D38">
         <v>4.2</v>
       </c>
+      <c r="E38" s="1">
+        <v>5.7</v>
+      </c>
       <c r="F38">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="G38">
-        <v>2.8</v>
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>
